--- a/reac-system-ts/1110.xlsx
+++ b/reac-system-ts/1110.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="281">
   <si>
     <t>エアメール</t>
     <phoneticPr fontId="1"/>
@@ -1699,6 +1699,206 @@
     <t>一概に</t>
     <rPh sb="0" eb="2">
       <t>イチガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おさらい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教え</t>
+    <rPh sb="0" eb="1">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教え子</t>
+    <rPh sb="0" eb="1">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>双子</t>
+    <rPh sb="0" eb="2">
+      <t>フタゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一人っ子</t>
+    <rPh sb="0" eb="2">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外観</t>
+    <rPh sb="0" eb="2">
+      <t>ガイカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解雇</t>
+    <rPh sb="0" eb="2">
+      <t>カイコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会合</t>
+    <rPh sb="0" eb="2">
+      <t>カイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外交</t>
+    <rPh sb="0" eb="2">
+      <t>ガイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開催</t>
+    <rPh sb="0" eb="2">
+      <t>カイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>訴える</t>
+    <rPh sb="0" eb="1">
+      <t>ウッタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移り変わり</t>
+    <rPh sb="0" eb="1">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雨天</t>
+    <rPh sb="0" eb="2">
+      <t>ウテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うとうと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唸る</t>
+    <rPh sb="0" eb="1">
+      <t>ウナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頷く</t>
+    <rPh sb="0" eb="1">
+      <t>ウナズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暴れる</t>
+    <rPh sb="0" eb="1">
+      <t>アバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浴びる</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アフターサービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脂</t>
+    <rPh sb="0" eb="1">
+      <t>アブラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炙る</t>
+    <rPh sb="0" eb="1">
+      <t>アブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アポ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雨足</t>
+    <rPh sb="0" eb="2">
+      <t>アマアシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>至る所</t>
+    <rPh sb="0" eb="1">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トコロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解釈</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>著しい</t>
+    <rPh sb="0" eb="1">
+      <t>イチジル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一段と</t>
+    <rPh sb="0" eb="2">
+      <t>イチダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一段落つく</t>
+    <rPh sb="0" eb="3">
+      <t>イチダンラク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1873,11 +2073,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2173,10 +2373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -2377,10 +2577,10 @@
       <c r="P6" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="T6" s="13"/>
+      <c r="T6" s="14"/>
       <c r="U6" s="2" t="s">
         <v>172</v>
       </c>
@@ -2407,10 +2607,10 @@
       <c r="N7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="Q7" s="13"/>
+      <c r="Q7" s="14"/>
       <c r="S7" s="2" t="s">
         <v>152</v>
       </c>
@@ -2528,10 +2728,10 @@
       <c r="N11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="Q11" s="13"/>
+      <c r="Q11" s="14"/>
       <c r="S11" s="2" t="s">
         <v>156</v>
       </c>
@@ -2936,18 +3136,18 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="6" customFormat="1">
+    <row r="33" spans="1:19" s="6" customFormat="1">
       <c r="F33" s="7" t="s">
         <v>227</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="N33" s="14" t="s">
+      <c r="N33" s="13" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:19">
       <c r="A34" s="11">
         <v>44875</v>
       </c>
@@ -2964,7 +3164,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:19">
       <c r="B35" s="2" t="s">
         <v>219</v>
       </c>
@@ -2978,7 +3178,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:19">
       <c r="B36" s="4" t="s">
         <v>220</v>
       </c>
@@ -2992,7 +3192,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:19">
       <c r="B37" s="2" t="s">
         <v>221</v>
       </c>
@@ -3006,7 +3206,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:19">
       <c r="B38" s="4" t="s">
         <v>222</v>
       </c>
@@ -3020,7 +3220,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:19">
       <c r="B39" s="4" t="s">
         <v>223</v>
       </c>
@@ -3034,7 +3234,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:19">
       <c r="B40" s="4" t="s">
         <v>224</v>
       </c>
@@ -3045,7 +3245,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:19">
       <c r="F41" s="4" t="s">
         <v>233</v>
       </c>
@@ -3053,14 +3253,122 @@
         <v>244</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:19">
       <c r="F42" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:19">
       <c r="F43" s="4" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" s="6" customFormat="1"/>
+    <row r="45" spans="1:19">
+      <c r="A45" s="11">
+        <v>44880</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="B46" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="B47" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="N47" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="B48" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19">
+      <c r="B49" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19">
+      <c r="J50" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19">
+      <c r="J51" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19">
+      <c r="J52" s="4" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/reac-system-ts/1110.xlsx
+++ b/reac-system-ts/1110.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="286">
   <si>
     <t>エアメール</t>
     <phoneticPr fontId="1"/>
@@ -1899,6 +1899,41 @@
     <t>一段落つく</t>
     <rPh sb="0" eb="3">
       <t>イチダンラク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改札</t>
+    <rPh sb="0" eb="2">
+      <t>カイサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解散</t>
+    <rPh sb="0" eb="2">
+      <t>カイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改ざん</t>
+    <rPh sb="0" eb="1">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外相</t>
+    <rPh sb="0" eb="2">
+      <t>ガイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外食</t>
+    <rPh sb="0" eb="2">
+      <t>ガイショク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2033,7 +2068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2078,6 +2113,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2373,10 +2411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -3336,7 +3374,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="49" spans="2:19">
+    <row r="49" spans="1:19">
       <c r="B49" s="2" t="s">
         <v>261</v>
       </c>
@@ -3353,7 +3391,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="2:19">
+    <row r="50" spans="1:19">
       <c r="J50" s="4" t="s">
         <v>273</v>
       </c>
@@ -3361,14 +3399,43 @@
         <v>267</v>
       </c>
     </row>
-    <row r="51" spans="2:19">
+    <row r="51" spans="1:19">
       <c r="J51" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="52" spans="2:19">
+    <row r="52" spans="1:19">
       <c r="J52" s="4" t="s">
         <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" s="6" customFormat="1"/>
+    <row r="54" spans="1:19">
+      <c r="A54" s="15">
+        <v>44882</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="B55" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="B56" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="B57" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="B58" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/reac-system-ts/1110.xlsx
+++ b/reac-system-ts/1110.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="296">
   <si>
     <t>エアメール</t>
     <phoneticPr fontId="1"/>
@@ -1935,6 +1935,46 @@
     <rPh sb="0" eb="2">
       <t>ガイショク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海水浴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回数券</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>快晴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改造</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海賊版</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会談</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>懐中電灯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>快適</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1946,14 +1986,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1961,7 +2001,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1969,7 +2009,7 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1977,7 +2017,7 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1985,14 +2025,14 @@
     <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2000,7 +2040,7 @@
     <font>
       <sz val="18"/>
       <color rgb="FFFFFF00"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2008,7 +2048,7 @@
     <font>
       <sz val="20"/>
       <color rgb="FFFFFF00"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2016,13 +2056,13 @@
     <font>
       <sz val="18"/>
       <color rgb="FF00B0F0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2050,6 +2090,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2114,12 +2160,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2127,7 +2173,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2411,13 +2457,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U58"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetFormatPr defaultRowHeight="22.5"/>
   <cols>
     <col min="1" max="2" width="26.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.25" style="2" customWidth="1"/>
@@ -2442,7 +2488,7 @@
     <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="24">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="25.5">
       <c r="B1" s="7" t="s">
         <v>34</v>
       </c>
@@ -3436,6 +3482,60 @@
     <row r="58" spans="1:19">
       <c r="B58" s="2" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" s="6" customFormat="1"/>
+    <row r="60" spans="1:19">
+      <c r="A60" s="15">
+        <v>44886</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="B61" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="B62" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="B63" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="B64" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
